--- a/sent_optimized_schedules/batt1_2024-11-30.xlsx
+++ b/sent_optimized_schedules/batt1_2024-11-30.xlsx
@@ -426,13 +426,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -474,13 +474,13 @@
         <v>25</v>
       </c>
       <c r="U11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -510,13 +510,13 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AJ11" t="n">
         <v>-25</v>
@@ -534,25 +534,25 @@
         <v>-25</v>
       </c>
       <c r="AO11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV11" t="n">
         <v>25</v>
@@ -570,13 +570,13 @@
         <v>25</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BK11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BL11" t="n">
         <v>-25</v>
@@ -630,37 +630,37 @@
         <v>-25</v>
       </c>
       <c r="BU11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="BW11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="CA11" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="CB11" t="n">
         <v>-25</v>
       </c>
       <c r="CC11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>

--- a/sent_optimized_schedules/batt1_2024-11-30.xlsx
+++ b/sent_optimized_schedules/batt1_2024-11-30.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D11:CU11"/>
+  <dimension ref="D11:BAI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,52 +426,52 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
         <v>0</v>
@@ -546,28 +546,28 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BA11" t="n">
         <v>0</v>
@@ -594,120 +594,3984 @@
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BM11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BN11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BO11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BP11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BR11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BS11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BT11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BU11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BW11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BX11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="BY11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="CA11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="CB11" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="CC11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CD11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CF11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CH11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CK11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CM11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CO11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CP11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CT11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="CU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="DZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="FZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="HZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="II11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="IZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="KR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="NZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ON11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="PZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="QZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="RP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="RZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ST11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="SZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="TZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="US11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="UZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="VZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="WA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="WB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="WC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="WD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="WE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="WF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="WZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="XZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="YN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="YZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ZZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AAZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ABZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACD11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACE11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACG11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACH11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACI11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACJ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACL11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACM11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACN11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACO11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACP11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACR11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACS11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACT11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACU11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACV11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACW11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACX11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACY11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ACZ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ADA11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ADB11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ADC11" t="n">
+        <v>25</v>
+      </c>
+      <c r="ADD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ADZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AED11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AER11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AES11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AET11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AEZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AFZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AGZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AHT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AHU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AHV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AHW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AHX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AHY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AHZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AID11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AII11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AIZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AJZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AKZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ALZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AME11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AML11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AMZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AND11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANT11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ANZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AON11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AOR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AOS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AOT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AOU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AOV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AOW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AOX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AOY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AOZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="API11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="APZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ART11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ARZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASH11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASI11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASJ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASK11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASL11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASM11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASN11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASO11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASP11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASQ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASR11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASS11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="AST11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASU11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASV11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASW11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASX11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASY11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ASZ11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ATA11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ATB11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ATC11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ATD11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ATE11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ATF11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ATG11" t="n">
+        <v>-25</v>
+      </c>
+      <c r="ATH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ATZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AUZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AVZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AWZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AXZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AYZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BAA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BAB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BAC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BAD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BAE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BAF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BAG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BAH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BAI11" t="n">
         <v>0</v>
       </c>
     </row>
